--- a/County-SO-Data/Grays Harbor/GraysHarbor.xlsx
+++ b/County-SO-Data/Grays Harbor/GraysHarbor.xlsx
@@ -1,31 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidris\Documents\GitHub\wa-pursuit-pdr-data\County-SO-Data\Grays Harbor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{798FDE62-1034-405F-8FE5-66BF72F109D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD94852-356D-4B7B-A98C-2218DE1AB9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{C507E9F4-044D-4AB1-8FC9-DA0FE137F92D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C507E9F4-044D-4AB1-8FC9-DA0FE137F92D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivottable" sheetId="3" r:id="rId2"/>
+    <sheet name="Table" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="107">
   <si>
     <t>Incident</t>
   </si>
@@ -331,6 +347,21 @@
   </si>
   <si>
     <t>Month total</t>
+  </si>
+  <si>
+    <t>Count of Incident</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -370,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -381,9 +412,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,6 +438,62 @@
         <name val="CIDFont+F1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CIDFont+F1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CIDFont+F1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CIDFont+F1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -479,7 +568,63 @@
         <name val="CIDFont+F1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CIDFont+F1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CIDFont+F1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="CIDFont+F1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -607,118 +752,6 @@
         <name val="CIDFont+F1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CIDFont+F1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CIDFont+F1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CIDFont+F1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CIDFont+F1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CIDFont+F1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="CIDFont+F1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -806,37 +839,1118 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shira Idris" refreshedDate="45518.516726620372" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="63" xr:uid="{018CAE62-78AF-4D10-8B60-DE41A2C5FC4F}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Incident" numFmtId="0">
+      <sharedItems count="63">
+        <s v="19-003745"/>
+        <s v="19-003930"/>
+        <s v="19-005077"/>
+        <s v="19-005107"/>
+        <s v="19-008166"/>
+        <s v="19-010821"/>
+        <s v="19-010951"/>
+        <s v="19-011308"/>
+        <s v="19-011748"/>
+        <s v="19-018036"/>
+        <s v="19-024788"/>
+        <s v="19-025015"/>
+        <s v="19-025467"/>
+        <s v="19-025918"/>
+        <s v="20-000557"/>
+        <s v="20-003508"/>
+        <s v="20-006768"/>
+        <s v="20-007013"/>
+        <s v="20-012565"/>
+        <s v="20-013207"/>
+        <s v="20-015004"/>
+        <s v="20-016365"/>
+        <s v="20-018370"/>
+        <s v="20-020455"/>
+        <s v="20-020462"/>
+        <s v="20-022153"/>
+        <s v="21-001319"/>
+        <s v="21-001596"/>
+        <s v="21-003413"/>
+        <s v="21-004463"/>
+        <s v="21-012426"/>
+        <s v="21-021856"/>
+        <s v="21-023352"/>
+        <s v="21-025488"/>
+        <s v="22-000446"/>
+        <s v="22-005677"/>
+        <s v="22-011768"/>
+        <s v="22-012647"/>
+        <s v="22-017169"/>
+        <s v="22-017613"/>
+        <s v="22-018971"/>
+        <s v="22-020575"/>
+        <s v="22-021534"/>
+        <s v="22-022186"/>
+        <s v="22-022702"/>
+        <s v="22-023190"/>
+        <s v="22-023799"/>
+        <s v="22-024269"/>
+        <s v="22-025335"/>
+        <s v="22-025487"/>
+        <s v="22-027082"/>
+        <s v="22-027636"/>
+        <s v="22-028863"/>
+        <s v="23-000495"/>
+        <s v="23-001207"/>
+        <s v="23-004147"/>
+        <s v="23-008272"/>
+        <s v="23-009957"/>
+        <s v="23-017240"/>
+        <s v="23-017887"/>
+        <s v="23-022210"/>
+        <s v="23-023967"/>
+        <s v="23-024737"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Incident nature" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Area" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Agen" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Time" numFmtId="21">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:52:19"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-03-01T00:00:00" maxDate="2023-11-03T00:00:00"/>
+    </cacheField>
+    <cacheField name="Disposition" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2019" maxValue="2023" count="5">
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="3"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="9"/>
+        <n v="12"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="10"/>
+        <n v="11"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="63">
+  <r>
+    <x v="0"/>
+    <s v="TPURS"/>
+    <s v="COSM"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T23:24:18"/>
+    <d v="2019-03-01T00:00:00"/>
+    <s v="CEA"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="TPURS"/>
+    <s v="COSM"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T21:12:57"/>
+    <d v="2019-03-04T00:00:00"/>
+    <s v="INA"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="TPURS"/>
+    <s v="MCCL"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T13:19:50"/>
+    <d v="2019-03-23T00:00:00"/>
+    <s v="CAA"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="TPURS"/>
+    <s v="ELMA"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T20:15:12"/>
+    <d v="2019-03-23T00:00:00"/>
+    <s v="CAA"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="TPURS"/>
+    <s v="O.SH"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T15:12:34"/>
+    <d v="2019-05-07T00:00:00"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="TPURS"/>
+    <s v="SATS"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T14:41:55"/>
+    <d v="2019-06-13T00:00:00"/>
+    <s v="CAA"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="TPURS"/>
+    <s v="SATS"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T13:54:04"/>
+    <d v="2019-06-15T00:00:00"/>
+    <s v="CAA"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="TPURS"/>
+    <s v="ELMA"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T21:49:15"/>
+    <d v="2019-06-19T00:00:00"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="TPURS"/>
+    <s v="WEST"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T21:08:17"/>
+    <d v="2019-06-25T00:00:00"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="TPURS"/>
+    <s v="WEST"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T22:35:48"/>
+    <d v="2019-09-03T00:00:00"/>
+    <s v="CAA"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="TPURS"/>
+    <s v="ELMA"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T03:50:43"/>
+    <d v="2019-12-08T00:00:00"/>
+    <s v="CAA"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="TPURS"/>
+    <s v="OAKV"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T14:41:08"/>
+    <d v="2019-12-11T00:00:00"/>
+    <s v="CAA"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="TPURS"/>
+    <s v="WEST"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T21:26:09"/>
+    <d v="2019-12-17T00:00:00"/>
+    <s v="CAA"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="TPURS"/>
+    <s v="HOQU"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T19:44:34"/>
+    <d v="2019-12-24T00:00:00"/>
+    <s v="CAA"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T16:39:06"/>
+    <d v="2020-01-09T00:00:00"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="TPURS"/>
+    <s v="C.CR"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T17:43:58"/>
+    <d v="2020-02-22T00:00:00"/>
+    <s v="CJA"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T15:13:43"/>
+    <d v="2020-04-23T00:00:00"/>
+    <s v="CAA"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="TPURS"/>
+    <s v="WEST"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T18:28:58"/>
+    <d v="2020-04-27T00:00:00"/>
+    <s v="CAA"/>
+    <x v="1"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="TPURS"/>
+    <s v="WEST"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T18:15:30"/>
+    <d v="2020-07-10T00:00:00"/>
+    <s v="INA"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="TPURS"/>
+    <s v="OCOS"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T10:22:49"/>
+    <d v="2020-07-20T00:00:00"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="TPURS"/>
+    <s v="WEST"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T06:48:33"/>
+    <d v="2020-08-12T00:00:00"/>
+    <m/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="TPURS"/>
+    <s v="WEST"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T00:32:39"/>
+    <d v="2020-08-30T00:00:00"/>
+    <s v="CEA"/>
+    <x v="1"/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="TPURS"/>
+    <s v="ELMA"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T12:21:18"/>
+    <d v="2020-09-24T00:00:00"/>
+    <s v="CAA"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T21:22:08"/>
+    <d v="2020-10-25T00:00:00"/>
+    <m/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="TPURS"/>
+    <s v="MCCL"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T22:56:08"/>
+    <d v="2020-10-25T00:00:00"/>
+    <s v="CAA"/>
+    <x v="1"/>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T00:04:10"/>
+    <d v="2020-11-22T00:00:00"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T15:57:27"/>
+    <d v="2021-01-22T00:00:00"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="TPURS"/>
+    <s v="ELMA"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T17:34:37"/>
+    <d v="2021-01-26T00:00:00"/>
+    <s v="CEA"/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="TPURS"/>
+    <s v="WISH"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T05:07:51"/>
+    <d v="2021-02-23T00:00:00"/>
+    <s v="CAA"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T20:33:28"/>
+    <d v="2021-03-10T00:00:00"/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="TPURS"/>
+    <s v="COSM"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T11:48:18"/>
+    <d v="2021-06-22T00:00:00"/>
+    <s v="CAA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="TPURS"/>
+    <s v="HOQU"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T00:02:44"/>
+    <d v="2021-10-12T00:00:00"/>
+    <s v="CAA"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="TPURS"/>
+    <s v="NEWS"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T03:41:20"/>
+    <d v="2021-11-01T00:00:00"/>
+    <s v="INA"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="TPURS"/>
+    <s v="TAHO"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T12:59:33"/>
+    <d v="2021-12-01T00:00:00"/>
+    <m/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T22:33:08"/>
+    <d v="2022-01-06T00:00:00"/>
+    <s v="CAA"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="TPURS"/>
+    <s v="BAYC"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T00:00:00"/>
+    <d v="2022-03-18T00:00:00"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="TPURS"/>
+    <s v="HOQU"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T05:24:18"/>
+    <d v="2022-06-06T00:00:00"/>
+    <m/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="TPURS"/>
+    <s v="ELMA"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T23:52:19"/>
+    <d v="2022-06-16T00:00:00"/>
+    <m/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="TPURS"/>
+    <s v="OAKV"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T08:19:30"/>
+    <d v="2022-08-02T00:00:00"/>
+    <s v="CAA"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T00:42:53"/>
+    <d v="2022-08-07T00:00:00"/>
+    <s v="INA"/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="TPURS"/>
+    <s v="TAHO"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T19:57:14"/>
+    <d v="2022-08-22T00:00:00"/>
+    <m/>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="TPURS"/>
+    <s v="BRAD"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T06:26:04"/>
+    <d v="2022-09-10T00:00:00"/>
+    <s v="CEA"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="TPURS"/>
+    <s v="HOQU"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T22:14:28"/>
+    <d v="2022-09-20T00:00:00"/>
+    <s v="ACT"/>
+    <x v="3"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="TPURS"/>
+    <s v="OUTCO"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T13:14:37"/>
+    <d v="2022-09-28T00:00:00"/>
+    <s v="CAA"/>
+    <x v="3"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T04:22:53"/>
+    <d v="2022-10-05T00:00:00"/>
+    <s v="CAA"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <s v="TPURS"/>
+    <s v="HOQU"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T19:29:53"/>
+    <d v="2022-10-10T00:00:00"/>
+    <s v="CAA"/>
+    <x v="3"/>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="46"/>
+    <s v="TPURS"/>
+    <s v="N.BA"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T18:14:46"/>
+    <d v="2022-10-18T00:00:00"/>
+    <s v="INA"/>
+    <x v="3"/>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="TPURS"/>
+    <s v="MCCL"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T01:57:31"/>
+    <d v="2022-10-25T00:00:00"/>
+    <s v="INA"/>
+    <x v="3"/>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="48"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T16:02:40"/>
+    <d v="2022-11-07T00:00:00"/>
+    <s v="CAA"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <s v="TPURS"/>
+    <s v="ELMA"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T10:00:02"/>
+    <d v="2022-11-09T00:00:00"/>
+    <s v="ACT"/>
+    <x v="3"/>
+    <x v="11"/>
+    <m/>
+  </r>
+  <r>
+    <x v="50"/>
+    <s v="TPURS"/>
+    <s v="SATS"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T08:15:50"/>
+    <d v="2022-12-02T00:00:00"/>
+    <s v="CEA"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <s v="TPURS"/>
+    <s v="BRAD"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T14:34:32"/>
+    <d v="2022-12-10T00:00:00"/>
+    <s v="INA"/>
+    <x v="3"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="52"/>
+    <s v="TPURS"/>
+    <s v="O.SH"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T20:33:06"/>
+    <d v="2022-12-25T00:00:00"/>
+    <s v="CEA"/>
+    <x v="3"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="53"/>
+    <s v="TPURS"/>
+    <s v="HUMP"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T17:08:26"/>
+    <d v="2023-01-06T00:00:00"/>
+    <s v="INA"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <s v="TPURS"/>
+    <s v="HOQU"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T00:50:01"/>
+    <d v="2023-01-15T00:00:00"/>
+    <s v="CAA"/>
+    <x v="4"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="55"/>
+    <s v="TPURS"/>
+    <s v="WISH"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T03:48:57"/>
+    <d v="2023-02-20T00:00:00"/>
+    <s v="INA"/>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <s v="TPURS"/>
+    <s v="ABER"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T11:25:50"/>
+    <d v="2023-04-16T00:00:00"/>
+    <s v="INA"/>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <s v="TPURS"/>
+    <s v="ELMA"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T18:20:06"/>
+    <d v="2023-05-06T00:00:00"/>
+    <s v="CAA"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <s v="TPURS"/>
+    <s v="O.CI"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T20:41:26"/>
+    <d v="2023-07-29T00:00:00"/>
+    <s v="INA"/>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <s v="TPURS"/>
+    <s v="ELMA"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T19:14:33"/>
+    <d v="2023-08-05T00:00:00"/>
+    <s v="CEA"/>
+    <x v="4"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <s v="TPURS"/>
+    <s v="P.BE"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T15:48:41"/>
+    <d v="2023-09-29T00:00:00"/>
+    <s v="CAA"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <s v="TPURS"/>
+    <s v="O.SH"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T22:52:29"/>
+    <d v="2023-10-22T00:00:00"/>
+    <m/>
+    <x v="4"/>
+    <x v="10"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <s v="TPURS"/>
+    <s v="CLEM"/>
+    <s v="GHSO"/>
+    <d v="1899-12-30T21:19:42"/>
+    <d v="2023-11-02T00:00:00"/>
+    <s v="CAA"/>
+    <x v="4"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F87A2AAF-5448-4C92-AA13-C86E3127E061}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:N10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisPage" dataField="1" showAll="0">
+      <items count="64">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="21" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="13">
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Incident" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C32781B8-C6E8-435B-A464-69CB69D75F31}" name="Table1" displayName="Table1" ref="B1:K65" totalsRowCount="1" headerRowDxfId="13" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C32781B8-C6E8-435B-A464-69CB69D75F31}" name="Table1" displayName="Table1" ref="B1:K65" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B1:K64" xr:uid="{C32781B8-C6E8-435B-A464-69CB69D75F31}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J64">
     <sortCondition ref="I1:I64"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4AE1DE58-94D1-49D6-97E7-5B9AD60958B6}" name="Incident" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{951F87A5-C263-4A1A-AC48-EF47ACACC662}" name="Incident nature" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{21823868-EC3A-438C-AC5B-553788971ADD}" name="Area" dataDxfId="19" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{36CD64D3-E2AA-471F-ABE8-AA94323F3BC7}" name="Agen" dataDxfId="18" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{FE265266-40AF-435D-A813-7AF925E16165}" name="Time" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{AB1F0F76-50C0-4C73-AE58-B3597B55179A}" name="Date" dataDxfId="16" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{1FD1EDA0-783B-4F7D-BDB7-9019C6925B42}" name="Disposition" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{84DF0789-3DE8-4F74-8503-9285D5D73A53}" name="Year" dataDxfId="12" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{4AE1DE58-94D1-49D6-97E7-5B9AD60958B6}" name="Incident" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{951F87A5-C263-4A1A-AC48-EF47ACACC662}" name="Incident nature" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{21823868-EC3A-438C-AC5B-553788971ADD}" name="Area" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{36CD64D3-E2AA-471F-ABE8-AA94323F3BC7}" name="Agen" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{FE265266-40AF-435D-A813-7AF925E16165}" name="Time" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{AB1F0F76-50C0-4C73-AE58-B3597B55179A}" name="Date" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{1FD1EDA0-783B-4F7D-BDB7-9019C6925B42}" name="Disposition" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{84DF0789-3DE8-4F74-8503-9285D5D73A53}" name="Year" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>YEAR(Table1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6E793628-EEC6-4BDB-B2E3-B8ABC8B8AB78}" name="Month" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
+    <tableColumn id="9" xr3:uid="{6E793628-EEC6-4BDB-B2E3-B8ABC8B8AB78}" name="Month" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>MONTH(Table1[[#This Row],[Date]])</calculatedColumnFormula>
       <totalsRowFormula>COUNT(Table1[Month])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{68F65C53-2ED5-4045-A9F1-6D58A5A8D8EA}" name="Month total" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{68F65C53-2ED5-4045-A9F1-6D58A5A8D8EA}" name="Month total" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -874,7 +1988,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -980,7 +2094,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1122,7 +2236,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1136,7 +2250,7 @@
   <dimension ref="B1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3231,8 +4345,8 @@
       <c r="F65" s="2"/>
       <c r="G65" s="3"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4">
+      <c r="I65" s="1"/>
+      <c r="J65" s="1">
         <f>COUNT(Table1[Month])</f>
         <v>63</v>
       </c>
@@ -3244,8 +4358,584 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Classified as Confidential</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6B801F-BA91-4BB5-A8A3-5EABA3329E04}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
+        <v>4</v>
+      </c>
+      <c r="N5" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6">
+        <v>4</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3</v>
+      </c>
+      <c r="N8" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>6</v>
+      </c>
+      <c r="J10" s="6">
+        <v>6</v>
+      </c>
+      <c r="K10" s="6">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>5</v>
+      </c>
+      <c r="M10" s="6">
+        <v>8</v>
+      </c>
+      <c r="N10" s="6">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Classified as Confidential</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECCBEDB-C76D-4BA6-B880-59FEF1B03A0C}">
+  <dimension ref="A3:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Classified as Confidential</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{73e1574c-c8ec-44e1-b6a3-6c03693693f2}" enabled="1" method="Standard" siteId="{e99791a9-4b08-407d-9055-4eaad8add382}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>